--- a/ResultadoEleicoesDistritos/BRAGANÇA_VILA FLOR.xlsx
+++ b/ResultadoEleicoesDistritos/BRAGANÇA_VILA FLOR.xlsx
@@ -597,64 +597,64 @@
         <v>1980</v>
       </c>
       <c r="H2" t="n">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="I2" t="n">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="J2" t="n">
-        <v>822</v>
+        <v>832</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N2" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="S2" t="n">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="T2" t="n">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="U2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="V2" t="n">
-        <v>1264</v>
+        <v>1282</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="Y2" t="n">
         <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
